--- a/process/process files/central point coordinate.xlsx
+++ b/process/process files/central point coordinate.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHD\pyKinectAzure\data\operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHD\pyKinectAzure\process\process files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC823B39-0E2B-43E1-9192-FE1411984844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF3D3D7-689E-4014-A02F-41EAD8FBFC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11060" windowWidth="19400" windowHeight="10300" xr2:uid="{00A9FDE0-20B1-4F05-AD1E-7F0EF9F78FFD}"/>
+    <workbookView xWindow="0" yWindow="10580" windowWidth="19200" windowHeight="10300" xr2:uid="{00A9FDE0-20B1-4F05-AD1E-7F0EF9F78FFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -456,42 +456,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>7.24</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="B2">
-        <v>155.58000000000001</v>
+        <v>1555.8</v>
       </c>
       <c r="C2">
-        <v>30.37</v>
+        <v>303.7</v>
       </c>
       <c r="D2">
-        <v>9.64</v>
+        <v>96.4</v>
       </c>
       <c r="E2">
-        <v>149.53</v>
+        <v>1495.3</v>
       </c>
       <c r="F2">
-        <v>-26.89</v>
+        <v>-268.89999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>9.32</v>
+        <v>93.2</v>
       </c>
       <c r="B3">
-        <v>155.34</v>
+        <v>1553.4</v>
       </c>
       <c r="C3">
-        <v>30.45</v>
+        <v>304.5</v>
       </c>
       <c r="D3">
-        <v>8.85</v>
+        <v>88.5</v>
       </c>
       <c r="E3">
-        <v>154.18</v>
+        <v>1541.8</v>
       </c>
       <c r="F3">
-        <v>-25.22</v>
+        <v>-252.2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -499,59 +499,59 @@
         <v>66.64</v>
       </c>
       <c r="B4">
-        <v>208.05</v>
+        <v>2080.5</v>
       </c>
       <c r="C4">
-        <v>48.83</v>
+        <v>488.3</v>
       </c>
       <c r="D4">
         <v>60.34</v>
       </c>
       <c r="E4">
-        <v>215.43</v>
+        <v>2154.3000000000002</v>
       </c>
       <c r="F4">
-        <v>-33.450000000000003</v>
+        <v>-334.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>10.23</v>
+        <v>102.3</v>
       </c>
       <c r="B5">
-        <v>156.66999999999999</v>
+        <v>1566.7</v>
       </c>
       <c r="C5">
-        <v>60.19</v>
+        <v>601.9</v>
       </c>
       <c r="D5">
-        <v>8.99</v>
+        <v>89.9</v>
       </c>
       <c r="E5">
-        <v>157.05000000000001</v>
+        <v>1570.5</v>
       </c>
       <c r="F5">
-        <v>-58.05</v>
+        <v>-580.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>-50.9</v>
+        <v>-509</v>
       </c>
       <c r="B6">
-        <v>161.44</v>
+        <v>1614.4</v>
       </c>
       <c r="C6">
-        <v>59.4</v>
+        <v>594</v>
       </c>
       <c r="D6">
-        <v>-50.97</v>
+        <v>-509.7</v>
       </c>
       <c r="E6">
-        <v>159.83000000000001</v>
+        <v>1598.3</v>
       </c>
       <c r="F6">
-        <v>-52.73</v>
+        <v>-527.29999999999995</v>
       </c>
     </row>
   </sheetData>
